--- a/backend/BookSwap Data.xlsx
+++ b/backend/BookSwap Data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="211">
   <si>
     <t>Title</t>
   </si>
@@ -324,6 +324,9 @@
     <t>Photo Url</t>
   </si>
   <si>
+    <t>User Rating</t>
+  </si>
+  <si>
     <t>Emily Smith</t>
   </si>
   <si>
@@ -381,7 +384,7 @@
     <t>Daniel's love for sports shines through in his book choices. If you're a sports fanatic, you'll enjoy swapping books with him. However, his selection can be a bit limited outside of the sports genre. Nonetheless, his enthusiasm and fitness knowledge make for interesting discussions.</t>
   </si>
   <si>
-    <t>https://media.licdn.com/dms/image/C4E03AQGYCCiP8tTICw/profile-displayphoto-shrink_800_800/0/1582034515711?e=2147483647&amp;v=beta&amp;t=mFpk3gerHJk9etpzQ8Ri4lZNQPXyq-QxdD3aS9hyo6I</t>
+    <t>https://media.licdn.com/dms/image/C5603AQFu4w10gvFofQ/profile-displayphoto-shrink_800_800/0/1661834986363?e=2147483647&amp;v=beta&amp;t=X2rRcyMvRBya9qRaBo3YYrsBU8iIc6X3i8LEwLisbqI</t>
   </si>
   <si>
     <t>Olivia Davis</t>
@@ -1515,305 +1518,353 @@
       <c r="F1" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E2" s="5">
         <v>1.3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="G2" s="5">
+        <v>4.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E3" s="5">
         <v>2.5</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E4" s="5">
         <v>3.1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="G4" s="5">
+        <v>4.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E5" s="5">
         <v>5.0</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>122</v>
+      <c r="F5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="5">
+        <v>4.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E6" s="5">
         <v>9.0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="G6" s="5">
+        <v>4.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E7" s="5">
         <v>10.0</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="G7" s="5">
+        <v>4.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E8" s="5">
         <v>18.0</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="G8" s="5">
+        <v>4.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E9" s="5">
         <v>22.0</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="G9" s="5">
+        <v>4.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E10" s="5">
         <v>50.0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="G10" s="5">
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E11" s="5">
         <v>77.0</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="G11" s="5">
+        <v>4.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E12" s="5">
         <v>45.0</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E13" s="5">
         <v>33.0</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
+      </c>
+      <c r="G13" s="5">
+        <v>4.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E14" s="5">
         <v>12.0</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="G14" s="5">
+        <v>4.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E15" s="5">
         <v>3.0</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="G15" s="5">
+        <v>5.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E16" s="5">
         <v>69.0</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="G16" s="5">
+        <v>4.9</v>
       </c>
     </row>
   </sheetData>
@@ -1856,16 +1907,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -1876,13 +1927,13 @@
         <v>9</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E2" s="5">
         <v>4.0</v>
@@ -1893,13 +1944,13 @@
         <v>1984.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E3" s="5">
         <v>5.0</v>
@@ -1910,13 +1961,13 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E4" s="5">
         <v>4.0</v>
@@ -1927,13 +1978,13 @@
         <v>26</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E5" s="5">
         <v>5.0</v>
@@ -1944,13 +1995,13 @@
         <v>32</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E6" s="5">
         <v>4.0</v>
@@ -1961,13 +2012,13 @@
         <v>38</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E7" s="5">
         <v>3.0</v>
@@ -1978,13 +2029,13 @@
         <v>44</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E8" s="5">
         <v>4.0</v>
@@ -1995,13 +2046,13 @@
         <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E9" s="5">
         <v>5.0</v>
@@ -2012,13 +2063,13 @@
         <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E10" s="5">
         <v>4.0</v>
@@ -2029,13 +2080,13 @@
         <v>62</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E11" s="5">
         <v>5.0</v>
@@ -2046,13 +2097,13 @@
         <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E12" s="5">
         <v>4.0</v>
@@ -2063,13 +2114,13 @@
         <v>73</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E13" s="5">
         <v>5.0</v>
@@ -2080,13 +2131,13 @@
         <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E14" s="5">
         <v>4.0</v>
@@ -2097,13 +2148,13 @@
         <v>85</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E15" s="5">
         <v>5.0</v>
@@ -2114,13 +2165,13 @@
         <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E16" s="5">
         <v>4.0</v>
